--- a/data/input/absenteeism_data_8.xlsx
+++ b/data/input/absenteeism_data_8.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45911</v>
+        <v>70080</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emilly Teixeira</t>
+          <t>Bernardo da Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,55 +490,55 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>3549.49</v>
+        <v>4546.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27572</v>
+        <v>4405</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caio Vieira</t>
+          <t>Maria Clara Silveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G3" t="n">
-        <v>3286.94</v>
+        <v>10375.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95257</v>
+        <v>71175</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Azevedo</t>
+          <t>Eduarda Rocha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,118 +548,118 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>4745.64</v>
+        <v>5010.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>54352</v>
+        <v>58328</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dra. Emanuella Freitas</t>
+          <t>Eduarda Rezende</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>11817.16</v>
+        <v>10875.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46728</v>
+        <v>84845</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Isaac Costela</t>
+          <t>Luiz Felipe Ribeiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45083</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>7657.93</v>
+        <v>12488.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>79980</v>
+        <v>58120</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pedro Lucas Pinto</t>
+          <t>Camila Silva</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>3076.67</v>
+        <v>9042.620000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>72879</v>
+        <v>71274</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lavínia Aragão</t>
+          <t>Francisco Porto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>6900.41</v>
+        <v>12090.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>69389</v>
+        <v>65278</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Felipe Cavalcanti</t>
+          <t>Enzo Gabriel Moreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>6836.02</v>
+        <v>11273.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>81706</v>
+        <v>55229</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Breno Peixoto</t>
+          <t>Guilherme da Mata</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45087</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>5671.1</v>
+        <v>6200.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94651</v>
+        <v>49658</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Carolina da Rosa</t>
+          <t>Daniela da Mata</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45094</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>11904.82</v>
+        <v>12071.44</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_8.xlsx
+++ b/data/input/absenteeism_data_8.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>70080</v>
+        <v>10207</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bernardo da Costa</t>
+          <t>Eduarda da Conceição</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>4546.18</v>
+        <v>7570.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4405</v>
+        <v>5592</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Clara Silveira</t>
+          <t>Emanuelly Santos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>10375.55</v>
+        <v>10702.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71175</v>
+        <v>86856</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eduarda Rocha</t>
+          <t>Levi Fernandes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>5010.68</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58328</v>
+        <v>630</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eduarda Rezende</t>
+          <t>Cauã da Rocha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45101</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>10875.4</v>
+        <v>9323.219999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84845</v>
+        <v>1148</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiz Felipe Ribeiro</t>
+          <t>Benjamin Moraes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>12488.72</v>
+        <v>7171.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>58120</v>
+        <v>62549</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Camila Silva</t>
+          <t>Isabel da Conceição</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,56 +639,56 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>9042.620000000001</v>
+        <v>10278.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>71274</v>
+        <v>65017</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Francisco Porto</t>
+          <t>Maria Vitória Oliveira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>12090.13</v>
+        <v>7542.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65278</v>
+        <v>24890</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Moreira</t>
+          <t>Srta. Marcela Farias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>11273.34</v>
+        <v>7892.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>55229</v>
+        <v>47048</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Guilherme da Mata</t>
+          <t>Diogo Moraes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -729,19 +729,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>6200.75</v>
+        <v>9176.799999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49658</v>
+        <v>11513</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Daniela da Mata</t>
+          <t>Maysa Alves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45090</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>12071.44</v>
+        <v>4744.34</v>
       </c>
     </row>
   </sheetData>
